--- a/outputs-HGR-r202/g__Eubacterium_R.xlsx
+++ b/outputs-HGR-r202/g__Eubacterium_R.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y113"/>
+  <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -641,6 +646,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -722,6 +732,11 @@
           <t>s__Eubacterium_R sp900546785</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900546785(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -803,6 +818,11 @@
           <t>s__Eubacterium_R sp900539775</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900539775</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -884,6 +904,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -965,6 +990,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1046,6 +1076,11 @@
           <t>s__Eubacterium_R sp900546785</t>
         </is>
       </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900546785(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1127,6 +1162,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1208,6 +1248,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1289,6 +1334,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1370,6 +1420,11 @@
           <t>s__Eubacterium_R sp900539775</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900539775</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1451,6 +1506,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1532,6 +1592,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1613,6 +1678,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1694,6 +1764,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1775,6 +1850,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1856,6 +1936,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1937,6 +2022,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2018,6 +2108,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2099,6 +2194,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2180,6 +2280,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2261,6 +2366,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2342,6 +2452,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2423,6 +2538,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2504,6 +2624,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2585,6 +2710,11 @@
           <t>s__Eubacterium_R sp900540235</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900540235(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2666,6 +2796,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2747,6 +2882,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2828,6 +2968,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2909,6 +3054,11 @@
           <t>s__Eubacterium_R sp900539775</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900539775(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2990,6 +3140,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -3071,6 +3226,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -3152,6 +3312,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3233,6 +3398,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3314,6 +3484,11 @@
           <t>s__Eubacterium_R sp900540235</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900540235(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3395,6 +3570,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3476,6 +3656,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3557,6 +3742,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3638,6 +3828,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3719,6 +3914,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3800,6 +4000,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3881,6 +4086,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3962,6 +4172,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -4043,6 +4258,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -4124,6 +4344,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -4205,6 +4430,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -4286,6 +4516,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -4367,6 +4602,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4448,6 +4688,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4529,6 +4774,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -4610,6 +4860,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4691,6 +4946,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4772,6 +5032,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4853,6 +5118,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -4934,6 +5204,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -5015,6 +5290,11 @@
           <t>s__Eubacterium_R sp003526845</t>
         </is>
       </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp003526845</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -5096,6 +5376,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -5177,6 +5462,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -5258,6 +5548,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -5339,6 +5634,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -5420,6 +5720,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -5501,6 +5806,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5582,6 +5892,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -5663,6 +5978,11 @@
           <t>s__Eubacterium_R sp900539775</t>
         </is>
       </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900539775</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -5744,6 +6064,11 @@
           <t>s__Eubacterium_R sp900539775</t>
         </is>
       </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900539775</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -5825,6 +6150,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -5906,6 +6236,11 @@
           <t>s__Eubacterium_R sp003526845</t>
         </is>
       </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp003526845</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -5987,6 +6322,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -6068,6 +6408,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -6149,6 +6494,11 @@
           <t>s__Eubacterium_R sp900539775</t>
         </is>
       </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900539775(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -6230,6 +6580,11 @@
           <t>s__Eubacterium_R sp900546785</t>
         </is>
       </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900546785(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -6311,6 +6666,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -6392,6 +6752,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -6473,6 +6838,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -6554,6 +6924,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -6635,6 +7010,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -6716,6 +7096,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -6797,6 +7182,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -6878,6 +7268,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -6959,6 +7354,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -7040,6 +7440,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -7121,6 +7526,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -7202,6 +7612,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -7283,6 +7698,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -7364,6 +7784,11 @@
           <t>s__Eubacterium_R sp900546785</t>
         </is>
       </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900546785(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -7445,6 +7870,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -7526,6 +7956,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -7607,6 +8042,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -7688,6 +8128,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -7769,6 +8214,11 @@
           <t>s__Eubacterium_R sp900540235</t>
         </is>
       </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900540235(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -7850,6 +8300,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -7931,6 +8386,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -8012,6 +8472,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -8093,6 +8558,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -8174,6 +8644,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -8255,6 +8730,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -8336,6 +8816,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -8417,6 +8902,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -8498,6 +8988,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -8579,6 +9074,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -8660,6 +9160,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -8741,6 +9246,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -8822,6 +9332,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -8903,6 +9418,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -8984,6 +9504,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -9065,6 +9590,11 @@
           <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000434995</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -9146,6 +9676,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -9227,6 +9762,11 @@
           <t>s__Eubacterium_R sp900539425</t>
         </is>
       </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900539425</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -9308,6 +9848,11 @@
           <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -9389,6 +9934,11 @@
           <t>s__Eubacterium_R sp900539425</t>
         </is>
       </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900539425</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -9470,6 +10020,11 @@
           <t>s__Eubacterium_R sp900539425</t>
         </is>
       </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900539425</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -9551,6 +10106,11 @@
           <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -9630,6 +10190,11 @@
       <c r="Y113" t="inlineStr">
         <is>
           <t>s__Eubacterium_R sp900546785</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp900546785(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Eubacterium_R.xlsx
+++ b/outputs-HGR-r202/g__Eubacterium_R.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900546785</t>
+          <t>s__Eubacterium_R sp900546785(reject)</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900546785</t>
+          <t>s__Eubacterium_R sp900546785(reject)</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900540235</t>
+          <t>s__Eubacterium_R sp900540235(reject)</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900539775</t>
+          <t>s__Eubacterium_R sp900539775(reject)</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900540235</t>
+          <t>s__Eubacterium_R sp900540235(reject)</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900539775</t>
+          <t>s__Eubacterium_R sp900539775(reject)</t>
         </is>
       </c>
     </row>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900546785</t>
+          <t>s__Eubacterium_R sp900546785(reject)</t>
         </is>
       </c>
     </row>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900546785</t>
+          <t>s__Eubacterium_R sp900546785(reject)</t>
         </is>
       </c>
     </row>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900546785</t>
+          <t>s__Eubacterium_R sp900546785(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Eubacterium_R.xlsx
+++ b/outputs-HGR-r202/g__Eubacterium_R.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z113"/>
+  <dimension ref="A1:Z114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8223,163 +8223,163 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74428.fa</t>
+          <t>even_MAG-GUT71562.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.378031134012553e-05</v>
+        <v>0.00623158530668512</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0005930958850745267</v>
+        <v>6.532865083585077e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0004725392320642639</v>
+        <v>0.004110846698244158</v>
       </c>
       <c r="E91" t="n">
-        <v>6.076233330167312e-12</v>
+        <v>0.0005364153407022509</v>
       </c>
       <c r="F91" t="n">
-        <v>0.671133581491335</v>
+        <v>0.08259647091139175</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0004044090983959958</v>
+        <v>0.006153154804432942</v>
       </c>
       <c r="H91" t="n">
-        <v>0.005028701560154492</v>
+        <v>0.06671740434696051</v>
       </c>
       <c r="I91" t="n">
-        <v>5.034373657272881e-05</v>
+        <v>0.0005699667877852725</v>
       </c>
       <c r="J91" t="n">
-        <v>0.08232457800130474</v>
+        <v>0.0668570625420189</v>
       </c>
       <c r="K91" t="n">
-        <v>0.003828246739215407</v>
+        <v>0.02757207782616434</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04077151461474223</v>
+        <v>0.09554061493797547</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0382223559654964</v>
+        <v>0.01691165408922982</v>
       </c>
       <c r="N91" t="n">
-        <v>2.702823321400432e-05</v>
+        <v>0.01722087910189986</v>
       </c>
       <c r="O91" t="n">
-        <v>0.08475584361549769</v>
+        <v>0.3253194562600116</v>
       </c>
       <c r="P91" t="n">
-        <v>0.02110169809279786</v>
+        <v>0.1326194373336846</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.0004121003476177361</v>
+        <v>0.003135030633972676</v>
       </c>
       <c r="R91" t="n">
-        <v>0.007155329690882258</v>
+        <v>0.141910160669368</v>
       </c>
       <c r="S91" t="n">
-        <v>6.599766063799158e-07</v>
+        <v>2.516210193142702e-05</v>
       </c>
       <c r="T91" t="n">
-        <v>0.04352544768881685</v>
+        <v>0.0002979780401588803</v>
       </c>
       <c r="U91" t="n">
-        <v>2.474924752730019e-05</v>
+        <v>0.001041695917115323</v>
       </c>
       <c r="V91" t="n">
-        <v>5.080940340953747e-05</v>
+        <v>0.001634874383263649</v>
       </c>
       <c r="W91" t="n">
-        <v>0.00010318706185815</v>
+        <v>0.002932743316167642</v>
       </c>
       <c r="X91" t="n">
-        <v>0.671133581491335</v>
+        <v>0.3253194562600116</v>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp900540235</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp900540235(reject)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74507.fa</t>
+          <t>even_MAG-GUT74428.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.064311899381939e-05</v>
+        <v>1.378031134012553e-05</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0009463346626784159</v>
+        <v>0.0005930958850745267</v>
       </c>
       <c r="D92" t="n">
-        <v>6.069704346885981e-05</v>
+        <v>0.0004725392320642639</v>
       </c>
       <c r="E92" t="n">
-        <v>7.904323819601999e-07</v>
+        <v>6.076233330167312e-12</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4221230431519218</v>
+        <v>0.671133581491335</v>
       </c>
       <c r="G92" t="n">
-        <v>0.00173130027994587</v>
+        <v>0.0004044090983959958</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0243134241824659</v>
+        <v>0.005028701560154492</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0001228956069753819</v>
+        <v>5.034373657272881e-05</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03295571863261539</v>
+        <v>0.08232457800130474</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02850313048570791</v>
+        <v>0.003828246739215407</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1021848599514135</v>
+        <v>0.04077151461474223</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02859908544170942</v>
+        <v>0.0382223559654964</v>
       </c>
       <c r="N92" t="n">
-        <v>1.696005124507102e-05</v>
+        <v>2.702823321400432e-05</v>
       </c>
       <c r="O92" t="n">
-        <v>0.2321900528466591</v>
+        <v>0.08475584361549769</v>
       </c>
       <c r="P92" t="n">
-        <v>0.005741722902188343</v>
+        <v>0.02110169809279786</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.0008526945151799762</v>
+        <v>0.0004121003476177361</v>
       </c>
       <c r="R92" t="n">
-        <v>0.01528806658384432</v>
+        <v>0.007155329690882258</v>
       </c>
       <c r="S92" t="n">
-        <v>1.106594141621802e-06</v>
+        <v>6.599766063799158e-07</v>
       </c>
       <c r="T92" t="n">
-        <v>0.09856351888356647</v>
+        <v>0.04352544768881685</v>
       </c>
       <c r="U92" t="n">
-        <v>1.17371992946974e-05</v>
+        <v>2.474924752730019e-05</v>
       </c>
       <c r="V92" t="n">
-        <v>3.238385819809257e-05</v>
+        <v>5.080940340953747e-05</v>
       </c>
       <c r="W92" t="n">
-        <v>0.005749833575404191</v>
+        <v>0.00010318706185815</v>
       </c>
       <c r="X92" t="n">
-        <v>0.4221230431519218</v>
+        <v>0.671133581491335</v>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
@@ -8388,84 +8388,84 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835(reject)</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74585.fa</t>
+          <t>even_MAG-GUT74507.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.864916895022915e-05</v>
+        <v>1.064311899381939e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>0.001168360468702681</v>
+        <v>0.0009463346626784159</v>
       </c>
       <c r="D93" t="n">
-        <v>4.004462465988663e-05</v>
+        <v>6.069704346885981e-05</v>
       </c>
       <c r="E93" t="n">
-        <v>1.381206366200254e-09</v>
+        <v>7.904323819601999e-07</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5190727950224163</v>
+        <v>0.4221230431519218</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0001629753238425137</v>
+        <v>0.00173130027994587</v>
       </c>
       <c r="H93" t="n">
-        <v>0.01873207363441116</v>
+        <v>0.0243134241824659</v>
       </c>
       <c r="I93" t="n">
-        <v>2.778550372643199e-05</v>
+        <v>0.0001228956069753819</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0427866323834861</v>
+        <v>0.03295571863261539</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02413693330825055</v>
+        <v>0.02850313048570791</v>
       </c>
       <c r="L93" t="n">
-        <v>0.01753509367286283</v>
+        <v>0.1021848599514135</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0108880611004987</v>
+        <v>0.02859908544170942</v>
       </c>
       <c r="N93" t="n">
-        <v>1.235378264676847e-05</v>
+        <v>1.696005124507102e-05</v>
       </c>
       <c r="O93" t="n">
-        <v>0.2117529845303213</v>
+        <v>0.2321900528466591</v>
       </c>
       <c r="P93" t="n">
-        <v>0.02227982733982609</v>
+        <v>0.005741722902188343</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.001392264988334391</v>
+        <v>0.0008526945151799762</v>
       </c>
       <c r="R93" t="n">
-        <v>0.001765821789914024</v>
+        <v>0.01528806658384432</v>
       </c>
       <c r="S93" t="n">
-        <v>1.681259307410873e-06</v>
+        <v>1.106594141621802e-06</v>
       </c>
       <c r="T93" t="n">
-        <v>0.1273443179305684</v>
+        <v>0.09856351888356647</v>
       </c>
       <c r="U93" t="n">
-        <v>5.221761199808343e-05</v>
+        <v>1.17371992946974e-05</v>
       </c>
       <c r="V93" t="n">
-        <v>1.912475481703054e-05</v>
+        <v>3.238385819809257e-05</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0008100004192525974</v>
+        <v>0.005749833575404191</v>
       </c>
       <c r="X93" t="n">
-        <v>0.5190727950224163</v>
+        <v>0.4221230431519218</v>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
@@ -8474,256 +8474,256 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74686.fa</t>
+          <t>even_MAG-GUT74585.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>9.588252233637815e-12</v>
+        <v>1.864916895022915e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>1.379164129589244e-05</v>
+        <v>0.001168360468702681</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9847842418871617</v>
+        <v>4.004462465988663e-05</v>
       </c>
       <c r="E94" t="n">
-        <v>1.63042620643858e-13</v>
+        <v>1.381206366200254e-09</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0005270930944822922</v>
+        <v>0.5190727950224163</v>
       </c>
       <c r="G94" t="n">
-        <v>1.711968063332838e-06</v>
+        <v>0.0001629753238425137</v>
       </c>
       <c r="H94" t="n">
-        <v>0.00286388046288958</v>
+        <v>0.01873207363441116</v>
       </c>
       <c r="I94" t="n">
-        <v>7.431055993933341e-05</v>
+        <v>2.778550372643199e-05</v>
       </c>
       <c r="J94" t="n">
-        <v>6.304405161837154e-05</v>
+        <v>0.0427866323834861</v>
       </c>
       <c r="K94" t="n">
-        <v>1.474711162009867e-05</v>
+        <v>0.02413693330825055</v>
       </c>
       <c r="L94" t="n">
-        <v>0.003721482751736242</v>
+        <v>0.01753509367286283</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0004590674952917285</v>
+        <v>0.0108880611004987</v>
       </c>
       <c r="N94" t="n">
-        <v>0.002305846445995937</v>
+        <v>1.235378264676847e-05</v>
       </c>
       <c r="O94" t="n">
-        <v>5.989795183639119e-05</v>
+        <v>0.2117529845303213</v>
       </c>
       <c r="P94" t="n">
-        <v>3.357349706281508e-05</v>
+        <v>0.02227982733982609</v>
       </c>
       <c r="Q94" t="n">
-        <v>5.126573117695497e-07</v>
+        <v>0.001392264988334391</v>
       </c>
       <c r="R94" t="n">
-        <v>0.0005476782644457738</v>
+        <v>0.001765821789914024</v>
       </c>
       <c r="S94" t="n">
-        <v>5.330343847331404e-08</v>
+        <v>1.681259307410873e-06</v>
       </c>
       <c r="T94" t="n">
-        <v>0.004525135433850554</v>
+        <v>0.1273443179305684</v>
       </c>
       <c r="U94" t="n">
-        <v>1.579248143551398e-06</v>
+        <v>5.221761199808343e-05</v>
       </c>
       <c r="V94" t="n">
-        <v>2.61170470737098e-07</v>
+        <v>1.912475481703054e-05</v>
       </c>
       <c r="W94" t="n">
-        <v>2.090993594042336e-06</v>
+        <v>0.0008100004192525974</v>
       </c>
       <c r="X94" t="n">
-        <v>0.9847842418871617</v>
+        <v>0.5190727950224163</v>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000433975</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000433975</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75018.fa</t>
+          <t>even_MAG-GUT74686.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>8.138857050171869e-06</v>
+        <v>9.588252233637815e-12</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0001522218813816617</v>
+        <v>1.379164129589244e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0006271860806509575</v>
+        <v>0.9847842418871617</v>
       </c>
       <c r="E95" t="n">
-        <v>1.103834759563677e-08</v>
+        <v>1.63042620643858e-13</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5412048905765063</v>
+        <v>0.0005270930944822922</v>
       </c>
       <c r="G95" t="n">
-        <v>0.00589889902300234</v>
+        <v>1.711968063332838e-06</v>
       </c>
       <c r="H95" t="n">
-        <v>0.01103849690245752</v>
+        <v>0.00286388046288958</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0001067094587154898</v>
+        <v>7.431055993933341e-05</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05832737675802235</v>
+        <v>6.304405161837154e-05</v>
       </c>
       <c r="K95" t="n">
-        <v>0.00110269724093362</v>
+        <v>1.474711162009867e-05</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08118589123644337</v>
+        <v>0.003721482751736242</v>
       </c>
       <c r="M95" t="n">
-        <v>0.01876287804360415</v>
+        <v>0.0004590674952917285</v>
       </c>
       <c r="N95" t="n">
-        <v>4.322401482131271e-05</v>
+        <v>0.002305846445995937</v>
       </c>
       <c r="O95" t="n">
-        <v>0.06398685800626729</v>
+        <v>5.989795183639119e-05</v>
       </c>
       <c r="P95" t="n">
-        <v>0.07418791127581241</v>
+        <v>3.357349706281508e-05</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.0003817093582130645</v>
+        <v>5.126573117695497e-07</v>
       </c>
       <c r="R95" t="n">
-        <v>0.02931486491965636</v>
+        <v>0.0005476782644457738</v>
       </c>
       <c r="S95" t="n">
-        <v>1.824265681682681e-06</v>
+        <v>5.330343847331404e-08</v>
       </c>
       <c r="T95" t="n">
-        <v>0.1133007974596786</v>
+        <v>0.004525135433850554</v>
       </c>
       <c r="U95" t="n">
-        <v>3.167206654843786e-05</v>
+        <v>1.579248143551398e-06</v>
       </c>
       <c r="V95" t="n">
-        <v>4.851367477234815e-05</v>
+        <v>2.61170470737098e-07</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0002872278614330551</v>
+        <v>2.090993594042336e-06</v>
       </c>
       <c r="X95" t="n">
-        <v>0.5412048905765063</v>
+        <v>0.9847842418871617</v>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75063.fa</t>
+          <t>even_MAG-GUT75018.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.055101639216522e-05</v>
+        <v>8.138857050171869e-06</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0008274007192026003</v>
+        <v>0.0001522218813816617</v>
       </c>
       <c r="D96" t="n">
-        <v>0.000100578381529626</v>
+        <v>0.0006271860806509575</v>
       </c>
       <c r="E96" t="n">
-        <v>3.245946226320405e-09</v>
+        <v>1.103834759563677e-08</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5728807738707339</v>
+        <v>0.5412048905765063</v>
       </c>
       <c r="G96" t="n">
-        <v>0.001994970625046438</v>
+        <v>0.00589889902300234</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01150874122872718</v>
+        <v>0.01103849690245752</v>
       </c>
       <c r="I96" t="n">
-        <v>5.027579346859815e-05</v>
+        <v>0.0001067094587154898</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0712405782682508</v>
+        <v>0.05832737675802235</v>
       </c>
       <c r="K96" t="n">
-        <v>0.005675431639053724</v>
+        <v>0.00110269724093362</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04047487506249991</v>
+        <v>0.08118589123644337</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02113102461444818</v>
+        <v>0.01876287804360415</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0001235335981951287</v>
+        <v>4.322401482131271e-05</v>
       </c>
       <c r="O96" t="n">
-        <v>0.182699047823586</v>
+        <v>0.06398685800626729</v>
       </c>
       <c r="P96" t="n">
-        <v>0.0398005915653158</v>
+        <v>0.07418791127581241</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.002053565356489564</v>
+        <v>0.0003817093582130645</v>
       </c>
       <c r="R96" t="n">
-        <v>0.02060069805027859</v>
+        <v>0.02931486491965636</v>
       </c>
       <c r="S96" t="n">
-        <v>4.30911256187019e-07</v>
+        <v>1.824265681682681e-06</v>
       </c>
       <c r="T96" t="n">
-        <v>0.02729837222718642</v>
+        <v>0.1133007974596786</v>
       </c>
       <c r="U96" t="n">
-        <v>1.711365716247356e-05</v>
+        <v>3.167206654843786e-05</v>
       </c>
       <c r="V96" t="n">
-        <v>5.818183846512932e-05</v>
+        <v>4.851367477234815e-05</v>
       </c>
       <c r="W96" t="n">
-        <v>0.001423260506765226</v>
+        <v>0.0002872278614330551</v>
       </c>
       <c r="X96" t="n">
-        <v>0.5728807738707339</v>
+        <v>0.5412048905765063</v>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
@@ -8739,77 +8739,77 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75133.fa</t>
+          <t>even_MAG-GUT75063.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.387902193690672e-05</v>
+        <v>4.055101639216522e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>0.000427008353365878</v>
+        <v>0.0008274007192026003</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0001112527586359271</v>
+        <v>0.000100578381529626</v>
       </c>
       <c r="E97" t="n">
-        <v>9.782739039115912e-07</v>
+        <v>3.245946226320405e-09</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5891089862627304</v>
+        <v>0.5728807738707339</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01339545681225869</v>
+        <v>0.001994970625046438</v>
       </c>
       <c r="H97" t="n">
-        <v>0.02449337613530216</v>
+        <v>0.01150874122872718</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0001632699699769615</v>
+        <v>5.027579346859815e-05</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03004307169373257</v>
+        <v>0.0712405782682508</v>
       </c>
       <c r="K97" t="n">
-        <v>0.001064603552993711</v>
+        <v>0.005675431639053724</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06435497034385412</v>
+        <v>0.04047487506249991</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02763086049655938</v>
+        <v>0.02113102461444818</v>
       </c>
       <c r="N97" t="n">
-        <v>6.663002082269259e-05</v>
+        <v>0.0001235335981951287</v>
       </c>
       <c r="O97" t="n">
-        <v>0.1722569321296147</v>
+        <v>0.182699047823586</v>
       </c>
       <c r="P97" t="n">
-        <v>0.01258463150819253</v>
+        <v>0.0398005915653158</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.000182058044827019</v>
+        <v>0.002053565356489564</v>
       </c>
       <c r="R97" t="n">
-        <v>0.05127519770542944</v>
+        <v>0.02060069805027859</v>
       </c>
       <c r="S97" t="n">
-        <v>2.236571291946083e-07</v>
+        <v>4.30911256187019e-07</v>
       </c>
       <c r="T97" t="n">
-        <v>0.01061142337906339</v>
+        <v>0.02729837222718642</v>
       </c>
       <c r="U97" t="n">
-        <v>5.61220119919611e-06</v>
+        <v>1.711365716247356e-05</v>
       </c>
       <c r="V97" t="n">
-        <v>2.712004460090008e-05</v>
+        <v>5.818183846512932e-05</v>
       </c>
       <c r="W97" t="n">
-        <v>0.002182457633870273</v>
+        <v>0.001423260506765226</v>
       </c>
       <c r="X97" t="n">
-        <v>0.5891089862627304</v>
+        <v>0.5728807738707339</v>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
@@ -8825,77 +8825,77 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75928.fa</t>
+          <t>even_MAG-GUT75133.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0001341810229975247</v>
+        <v>1.387902193690672e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0005743839279685069</v>
+        <v>0.000427008353365878</v>
       </c>
       <c r="D98" t="n">
-        <v>0.000170729983653797</v>
+        <v>0.0001112527586359271</v>
       </c>
       <c r="E98" t="n">
-        <v>7.792084027583243e-07</v>
+        <v>9.782739039115912e-07</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6640075919435058</v>
+        <v>0.5891089862627304</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01767479717519757</v>
+        <v>0.01339545681225869</v>
       </c>
       <c r="H98" t="n">
-        <v>0.003744549892303143</v>
+        <v>0.02449337613530216</v>
       </c>
       <c r="I98" t="n">
-        <v>3.335610460944336e-05</v>
+        <v>0.0001632699699769615</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03599922461331855</v>
+        <v>0.03004307169373257</v>
       </c>
       <c r="K98" t="n">
-        <v>0.009055242103936609</v>
+        <v>0.001064603552993711</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07525668346505779</v>
+        <v>0.06435497034385412</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02739048694141611</v>
+        <v>0.02763086049655938</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0002948593443080339</v>
+        <v>6.663002082269259e-05</v>
       </c>
       <c r="O98" t="n">
-        <v>0.1110668952025098</v>
+        <v>0.1722569321296147</v>
       </c>
       <c r="P98" t="n">
-        <v>0.022381997312332</v>
+        <v>0.01258463150819253</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.001653072808489824</v>
+        <v>0.000182058044827019</v>
       </c>
       <c r="R98" t="n">
-        <v>0.01016575826531222</v>
+        <v>0.05127519770542944</v>
       </c>
       <c r="S98" t="n">
-        <v>6.037177252558274e-07</v>
+        <v>2.236571291946083e-07</v>
       </c>
       <c r="T98" t="n">
-        <v>0.01755198746716973</v>
+        <v>0.01061142337906339</v>
       </c>
       <c r="U98" t="n">
-        <v>3.818561947763579e-05</v>
+        <v>5.61220119919611e-06</v>
       </c>
       <c r="V98" t="n">
-        <v>0.0001719962985646997</v>
+        <v>2.712004460090008e-05</v>
       </c>
       <c r="W98" t="n">
-        <v>0.002632637581743571</v>
+        <v>0.002182457633870273</v>
       </c>
       <c r="X98" t="n">
-        <v>0.6640075919435058</v>
+        <v>0.5891089862627304</v>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
@@ -8911,421 +8911,421 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7654.fa</t>
+          <t>even_MAG-GUT75928.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0001664890597292494</v>
+        <v>0.0001341810229975247</v>
       </c>
       <c r="C99" t="n">
-        <v>5.617310535198131e-07</v>
+        <v>0.0005743839279685069</v>
       </c>
       <c r="D99" t="n">
-        <v>2.825981746677742e-06</v>
+        <v>0.000170729983653797</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9729462264601536</v>
+        <v>7.792084027583243e-07</v>
       </c>
       <c r="F99" t="n">
-        <v>9.597167653295404e-05</v>
+        <v>0.6640075919435058</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0005236035694803464</v>
+        <v>0.01767479717519757</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0004476287662358443</v>
+        <v>0.003744549892303143</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0001852788960009611</v>
+        <v>3.335610460944336e-05</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0003768763691529361</v>
+        <v>0.03599922461331855</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0002176624526351851</v>
+        <v>0.009055242103936609</v>
       </c>
       <c r="L99" t="n">
-        <v>0.01888370941928424</v>
+        <v>0.07525668346505779</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0004914018111864239</v>
+        <v>0.02739048694141611</v>
       </c>
       <c r="N99" t="n">
-        <v>5.596952950939366e-05</v>
+        <v>0.0002948593443080339</v>
       </c>
       <c r="O99" t="n">
-        <v>0.001001258917262946</v>
+        <v>0.1110668952025098</v>
       </c>
       <c r="P99" t="n">
-        <v>0.001511551123273351</v>
+        <v>0.022381997312332</v>
       </c>
       <c r="Q99" t="n">
-        <v>7.695885272562918e-06</v>
+        <v>0.001653072808489824</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0006571069608431282</v>
+        <v>0.01016575826531222</v>
       </c>
       <c r="S99" t="n">
-        <v>1.572230520404368e-05</v>
+        <v>6.037177252558274e-07</v>
       </c>
       <c r="T99" t="n">
-        <v>2.699699664584777e-06</v>
+        <v>0.01755198746716973</v>
       </c>
       <c r="U99" t="n">
-        <v>2.664599635721724e-06</v>
+        <v>3.818561947763579e-05</v>
       </c>
       <c r="V99" t="n">
-        <v>4.063102508734265e-06</v>
+        <v>0.0001719962985646997</v>
       </c>
       <c r="W99" t="n">
-        <v>0.002403031683633428</v>
+        <v>0.002632637581743571</v>
       </c>
       <c r="X99" t="n">
-        <v>0.9729462264601536</v>
+        <v>0.6640075919435058</v>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000434995</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000434995</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7728.fa</t>
+          <t>even_MAG-GUT7654.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.128125563627218e-05</v>
+        <v>0.0001664890597292494</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0002404921496256421</v>
+        <v>5.617310535198131e-07</v>
       </c>
       <c r="D100" t="n">
-        <v>0.000501938020133144</v>
+        <v>2.825981746677742e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>1.087801135048287e-10</v>
+        <v>0.9729462264601536</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6372618539617624</v>
+        <v>9.597167653295404e-05</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0005258160551837082</v>
+        <v>0.0005236035694803464</v>
       </c>
       <c r="H100" t="n">
-        <v>0.005201338139693961</v>
+        <v>0.0004476287662358443</v>
       </c>
       <c r="I100" t="n">
-        <v>7.258343977219836e-05</v>
+        <v>0.0001852788960009611</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0830959056116887</v>
+        <v>0.0003768763691529361</v>
       </c>
       <c r="K100" t="n">
-        <v>0.001881596871048496</v>
+        <v>0.0002176624526351851</v>
       </c>
       <c r="L100" t="n">
-        <v>0.01424213815739876</v>
+        <v>0.01888370941928424</v>
       </c>
       <c r="M100" t="n">
-        <v>0.01419085514737338</v>
+        <v>0.0004914018111864239</v>
       </c>
       <c r="N100" t="n">
-        <v>5.461960040778368e-05</v>
+        <v>5.596952950939366e-05</v>
       </c>
       <c r="O100" t="n">
-        <v>0.1995145249394906</v>
+        <v>0.001001258917262946</v>
       </c>
       <c r="P100" t="n">
-        <v>0.01177540545371341</v>
+        <v>0.001511551123273351</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.002168197613480999</v>
+        <v>7.695885272562918e-06</v>
       </c>
       <c r="R100" t="n">
-        <v>0.01296299278915947</v>
+        <v>0.0006571069608431282</v>
       </c>
       <c r="S100" t="n">
-        <v>3.719089594845985e-07</v>
+        <v>1.572230520404368e-05</v>
       </c>
       <c r="T100" t="n">
-        <v>0.01605235767514159</v>
+        <v>2.699699664584777e-06</v>
       </c>
       <c r="U100" t="n">
-        <v>6.183779521232662e-05</v>
+        <v>2.664599635721724e-06</v>
       </c>
       <c r="V100" t="n">
-        <v>4.537908420176652e-05</v>
+        <v>4.063102508734265e-06</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0001385142221359917</v>
+        <v>0.002403031683633428</v>
       </c>
       <c r="X100" t="n">
-        <v>0.6372618539617624</v>
+        <v>0.9729462264601536</v>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7746.fa</t>
+          <t>even_MAG-GUT7728.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.928294666268397e-05</v>
+        <v>1.128125563627218e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0001077675296058876</v>
+        <v>0.0002404921496256421</v>
       </c>
       <c r="D101" t="n">
-        <v>4.657496279900061e-06</v>
+        <v>0.000501938020133144</v>
       </c>
       <c r="E101" t="n">
-        <v>0.857365585745645</v>
+        <v>1.087801135048287e-10</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07532761564399748</v>
+        <v>0.6372618539617624</v>
       </c>
       <c r="G101" t="n">
-        <v>0.000494869555375454</v>
+        <v>0.0005258160551837082</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0008089311550412956</v>
+        <v>0.005201338139693961</v>
       </c>
       <c r="I101" t="n">
-        <v>2.45745143883076e-05</v>
+        <v>7.258343977219836e-05</v>
       </c>
       <c r="J101" t="n">
-        <v>0.001017811984797983</v>
+        <v>0.0830959056116887</v>
       </c>
       <c r="K101" t="n">
-        <v>0.001074902021540733</v>
+        <v>0.001881596871048496</v>
       </c>
       <c r="L101" t="n">
-        <v>0.03093240166743454</v>
+        <v>0.01424213815739876</v>
       </c>
       <c r="M101" t="n">
-        <v>0.007981821972540387</v>
+        <v>0.01419085514737338</v>
       </c>
       <c r="N101" t="n">
-        <v>3.561403238268207e-05</v>
+        <v>5.461960040778368e-05</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0170286737586449</v>
+        <v>0.1995145249394906</v>
       </c>
       <c r="P101" t="n">
-        <v>0.003737425123361794</v>
+        <v>0.01177540545371341</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.195568649821624e-05</v>
+        <v>0.002168197613480999</v>
       </c>
       <c r="R101" t="n">
-        <v>1.27917470333653e-05</v>
+        <v>0.01296299278915947</v>
       </c>
       <c r="S101" t="n">
-        <v>7.681789877473335e-07</v>
+        <v>3.719089594845985e-07</v>
       </c>
       <c r="T101" t="n">
-        <v>0.0007513457681113587</v>
+        <v>0.01605235767514159</v>
       </c>
       <c r="U101" t="n">
-        <v>7.07206253663215e-06</v>
+        <v>6.183779521232662e-05</v>
       </c>
       <c r="V101" t="n">
-        <v>1.185095513643192e-05</v>
+        <v>4.537908420176652e-05</v>
       </c>
       <c r="W101" t="n">
-        <v>0.003242280453996926</v>
+        <v>0.0001385142221359917</v>
       </c>
       <c r="X101" t="n">
-        <v>0.857365585745645</v>
+        <v>0.6372618539617624</v>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000434995</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000434995</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7779.fa</t>
+          <t>even_MAG-GUT7746.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.000662714011880321</v>
+        <v>1.928294666268397e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>0.002147321083934766</v>
+        <v>0.0001077675296058876</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0003033638527675784</v>
+        <v>4.657496279900061e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>3.186311903837874e-07</v>
+        <v>0.857365585745645</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2807574191664837</v>
+        <v>0.07532761564399748</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01515748892294012</v>
+        <v>0.000494869555375454</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02466135005075079</v>
+        <v>0.0008089311550412956</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0001558699488129745</v>
+        <v>2.45745143883076e-05</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0656226897810534</v>
+        <v>0.001017811984797983</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06070452900055221</v>
+        <v>0.001074902021540733</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1393393454088416</v>
+        <v>0.03093240166743454</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03388796866277018</v>
+        <v>0.007981821972540387</v>
       </c>
       <c r="N102" t="n">
-        <v>0.001105957538325203</v>
+        <v>3.561403238268207e-05</v>
       </c>
       <c r="O102" t="n">
-        <v>0.1934727923989995</v>
+        <v>0.0170286737586449</v>
       </c>
       <c r="P102" t="n">
-        <v>0.05483346992595878</v>
+        <v>0.003737425123361794</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.00602987530865436</v>
+        <v>1.195568649821624e-05</v>
       </c>
       <c r="R102" t="n">
-        <v>0.02889793831908477</v>
+        <v>1.27917470333653e-05</v>
       </c>
       <c r="S102" t="n">
-        <v>1.316242641000454e-05</v>
+        <v>7.681789877473335e-07</v>
       </c>
       <c r="T102" t="n">
-        <v>0.07956809932177913</v>
+        <v>0.0007513457681113587</v>
       </c>
       <c r="U102" t="n">
-        <v>0.0001754833560779488</v>
+        <v>7.07206253663215e-06</v>
       </c>
       <c r="V102" t="n">
-        <v>0.0004907868184632468</v>
+        <v>1.185095513643192e-05</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01201205606426927</v>
+        <v>0.003242280453996926</v>
       </c>
       <c r="X102" t="n">
-        <v>0.2807574191664837</v>
+        <v>0.857365585745645</v>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835(reject)</t>
+          <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7852.fa</t>
+          <t>even_MAG-GUT7779.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.00200527557427908</v>
+        <v>0.000662714011880321</v>
       </c>
       <c r="C103" t="n">
-        <v>0.002025194454390482</v>
+        <v>0.002147321083934766</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0002303855115740512</v>
+        <v>0.0003033638527675784</v>
       </c>
       <c r="E103" t="n">
-        <v>6.892660309779659e-05</v>
+        <v>3.186311903837874e-07</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3219475431295704</v>
+        <v>0.2807574191664837</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02487040688139649</v>
+        <v>0.01515748892294012</v>
       </c>
       <c r="H103" t="n">
-        <v>0.041591541690268</v>
+        <v>0.02466135005075079</v>
       </c>
       <c r="I103" t="n">
-        <v>2.142065870986934e-05</v>
+        <v>0.0001558699488129745</v>
       </c>
       <c r="J103" t="n">
-        <v>0.08055698937632934</v>
+        <v>0.0656226897810534</v>
       </c>
       <c r="K103" t="n">
-        <v>0.09104728408501646</v>
+        <v>0.06070452900055221</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09339833261969376</v>
+        <v>0.1393393454088416</v>
       </c>
       <c r="M103" t="n">
-        <v>0.01263288244365812</v>
+        <v>0.03388796866277018</v>
       </c>
       <c r="N103" t="n">
-        <v>0.05224927327463146</v>
+        <v>0.001105957538325203</v>
       </c>
       <c r="O103" t="n">
-        <v>0.003962494650335201</v>
+        <v>0.1934727923989995</v>
       </c>
       <c r="P103" t="n">
-        <v>0.2001012703648817</v>
+        <v>0.05483346992595878</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.00184028016990102</v>
+        <v>0.00602987530865436</v>
       </c>
       <c r="R103" t="n">
-        <v>0.001742341056507146</v>
+        <v>0.02889793831908477</v>
       </c>
       <c r="S103" t="n">
-        <v>1.643277372810326e-05</v>
+        <v>1.316242641000454e-05</v>
       </c>
       <c r="T103" t="n">
-        <v>0.006471677552481662</v>
+        <v>0.07956809932177913</v>
       </c>
       <c r="U103" t="n">
-        <v>0.0001793125464752076</v>
+        <v>0.0001754833560779488</v>
       </c>
       <c r="V103" t="n">
-        <v>0.003914996984885086</v>
+        <v>0.0004907868184632468</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0591257375981895</v>
+        <v>0.01201205606426927</v>
       </c>
       <c r="X103" t="n">
-        <v>0.3219475431295704</v>
+        <v>0.2807574191664837</v>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
@@ -9341,249 +9341,249 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78564.fa</t>
+          <t>even_MAG-GUT7852.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>8.565746121771242e-11</v>
+        <v>0.00200527557427908</v>
       </c>
       <c r="C104" t="n">
-        <v>0.006376277230587442</v>
+        <v>0.002025194454390482</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9358674883023324</v>
+        <v>0.0002303855115740512</v>
       </c>
       <c r="E104" t="n">
-        <v>1.768911994685116e-13</v>
+        <v>6.892660309779659e-05</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0007824847922911186</v>
+        <v>0.3219475431295704</v>
       </c>
       <c r="G104" t="n">
-        <v>7.841126854364386e-06</v>
+        <v>0.02487040688139649</v>
       </c>
       <c r="H104" t="n">
-        <v>0.009205053323361516</v>
+        <v>0.041591541690268</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0008572427445051051</v>
+        <v>2.142065870986934e-05</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0002087442131445221</v>
+        <v>0.08055698937632934</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0002390303475560633</v>
+        <v>0.09104728408501646</v>
       </c>
       <c r="L104" t="n">
-        <v>0.02461292841923355</v>
+        <v>0.09339833261969376</v>
       </c>
       <c r="M104" t="n">
-        <v>0.01445992837142798</v>
+        <v>0.01263288244365812</v>
       </c>
       <c r="N104" t="n">
-        <v>0.00447358679482504</v>
+        <v>0.05224927327463146</v>
       </c>
       <c r="O104" t="n">
-        <v>0.00135928876451663</v>
+        <v>0.003962494650335201</v>
       </c>
       <c r="P104" t="n">
-        <v>0.001208067023719242</v>
+        <v>0.2001012703648817</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.786538712453391e-06</v>
+        <v>0.00184028016990102</v>
       </c>
       <c r="R104" t="n">
-        <v>2.748798061091581e-05</v>
+        <v>0.001742341056507146</v>
       </c>
       <c r="S104" t="n">
-        <v>5.373994494739815e-07</v>
+        <v>1.643277372810326e-05</v>
       </c>
       <c r="T104" t="n">
-        <v>0.000231312310682036</v>
+        <v>0.006471677552481662</v>
       </c>
       <c r="U104" t="n">
-        <v>3.266407840486738e-05</v>
+        <v>0.0001793125464752076</v>
       </c>
       <c r="V104" t="n">
-        <v>6.167941368660241e-07</v>
+        <v>0.003914996984885086</v>
       </c>
       <c r="W104" t="n">
-        <v>4.763335781404818e-05</v>
+        <v>0.0591257375981895</v>
       </c>
       <c r="X104" t="n">
-        <v>0.9358674883023324</v>
+        <v>0.3219475431295704</v>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000433975</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000433975</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78632.fa</t>
+          <t>even_MAG-GUT78564.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>6.926402550324526e-05</v>
+        <v>8.565746121771242e-11</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0001072906405718133</v>
+        <v>0.006376277230587442</v>
       </c>
       <c r="D105" t="n">
-        <v>2.492145748212579e-06</v>
+        <v>0.9358674883023324</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9410207912955132</v>
+        <v>1.768911994685116e-13</v>
       </c>
       <c r="F105" t="n">
-        <v>0.003905139921887301</v>
+        <v>0.0007824847922911186</v>
       </c>
       <c r="G105" t="n">
-        <v>0.003115848258069528</v>
+        <v>7.841126854364386e-06</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0001424926718716624</v>
+        <v>0.009205053323361516</v>
       </c>
       <c r="I105" t="n">
-        <v>1.309694670883628e-05</v>
+        <v>0.0008572427445051051</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0005271223673060269</v>
+        <v>0.0002087442131445221</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0200192533765036</v>
+        <v>0.0002390303475560633</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0073325596590702</v>
+        <v>0.02461292841923355</v>
       </c>
       <c r="M105" t="n">
-        <v>0.009233719970852436</v>
+        <v>0.01445992837142798</v>
       </c>
       <c r="N105" t="n">
-        <v>3.65188395206001e-05</v>
+        <v>0.00447358679482504</v>
       </c>
       <c r="O105" t="n">
-        <v>0.004727134242118861</v>
+        <v>0.00135928876451663</v>
       </c>
       <c r="P105" t="n">
-        <v>0.000317131298790676</v>
+        <v>0.001208067023719242</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.074246715863675e-05</v>
+        <v>1.786538712453391e-06</v>
       </c>
       <c r="R105" t="n">
-        <v>5.00743254921503e-05</v>
+        <v>2.748798061091581e-05</v>
       </c>
       <c r="S105" t="n">
-        <v>6.869784561083021e-07</v>
+        <v>5.373994494739815e-07</v>
       </c>
       <c r="T105" t="n">
-        <v>0.00298019269585822</v>
+        <v>0.000231312310682036</v>
       </c>
       <c r="U105" t="n">
-        <v>1.152691733861763e-05</v>
+        <v>3.266407840486738e-05</v>
       </c>
       <c r="V105" t="n">
-        <v>7.68760243915127e-06</v>
+        <v>6.167941368660241e-07</v>
       </c>
       <c r="W105" t="n">
-        <v>0.006369233353221315</v>
+        <v>4.763335781404818e-05</v>
       </c>
       <c r="X105" t="n">
-        <v>0.9410207912955132</v>
+        <v>0.9358674883023324</v>
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000434995</t>
+          <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000434995</t>
+          <t>s__Eubacterium_R sp000433975</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80758.fa</t>
+          <t>even_MAG-GUT78632.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>8.007681896864042e-05</v>
+        <v>6.926402550324526e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.667955373335099e-05</v>
+        <v>0.0001072906405718133</v>
       </c>
       <c r="D106" t="n">
-        <v>3.16868385616486e-06</v>
+        <v>2.492145748212579e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9789374547169992</v>
+        <v>0.9410207912955132</v>
       </c>
       <c r="F106" t="n">
-        <v>0.002156152793213948</v>
+        <v>0.003905139921887301</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0004040273354620192</v>
+        <v>0.003115848258069528</v>
       </c>
       <c r="H106" t="n">
-        <v>0.001133951641487237</v>
+        <v>0.0001424926718716624</v>
       </c>
       <c r="I106" t="n">
-        <v>7.894473359040738e-05</v>
+        <v>1.309694670883628e-05</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0001544106020822666</v>
+        <v>0.0005271223673060269</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0004929890695462704</v>
+        <v>0.0200192533765036</v>
       </c>
       <c r="L106" t="n">
-        <v>0.009418133497132429</v>
+        <v>0.0073325596590702</v>
       </c>
       <c r="M106" t="n">
-        <v>0.001534307030652503</v>
+        <v>0.009233719970852436</v>
       </c>
       <c r="N106" t="n">
-        <v>9.29222637210269e-06</v>
+        <v>3.65188395206001e-05</v>
       </c>
       <c r="O106" t="n">
-        <v>0.003742003921979236</v>
+        <v>0.004727134242118861</v>
       </c>
       <c r="P106" t="n">
-        <v>0.0005281599279106633</v>
+        <v>0.000317131298790676</v>
       </c>
       <c r="Q106" t="n">
-        <v>6.821730778302144e-06</v>
+        <v>1.074246715863675e-05</v>
       </c>
       <c r="R106" t="n">
-        <v>0.0001859898528490441</v>
+        <v>5.00743254921503e-05</v>
       </c>
       <c r="S106" t="n">
-        <v>4.990396675618198e-06</v>
+        <v>6.869784561083021e-07</v>
       </c>
       <c r="T106" t="n">
-        <v>0.0004208823919759132</v>
+        <v>0.00298019269585822</v>
       </c>
       <c r="U106" t="n">
-        <v>3.654799719785229e-06</v>
+        <v>1.152691733861763e-05</v>
       </c>
       <c r="V106" t="n">
-        <v>1.675997590312964e-06</v>
+        <v>7.68760243915127e-06</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0006862322774243691</v>
+        <v>0.006369233353221315</v>
       </c>
       <c r="X106" t="n">
-        <v>0.9789374547169992</v>
+        <v>0.9410207912955132</v>
       </c>
       <c r="Y106" t="inlineStr">
         <is>
@@ -9599,421 +9599,421 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8165.fa</t>
+          <t>even_MAG-GUT80758.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>7.425977321049831e-05</v>
+        <v>8.007681896864042e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>0.002272544748592859</v>
+        <v>1.667955373335099e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0001736135419491218</v>
+        <v>3.16868385616486e-06</v>
       </c>
       <c r="E107" t="n">
-        <v>1.843087401114687e-05</v>
+        <v>0.9789374547169992</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5231572957002747</v>
+        <v>0.002156152793213948</v>
       </c>
       <c r="G107" t="n">
-        <v>0.004833391036796956</v>
+        <v>0.0004040273354620192</v>
       </c>
       <c r="H107" t="n">
-        <v>0.172415077215591</v>
+        <v>0.001133951641487237</v>
       </c>
       <c r="I107" t="n">
-        <v>3.624843677894808e-05</v>
+        <v>7.894473359040738e-05</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03593171337313032</v>
+        <v>0.0001544106020822666</v>
       </c>
       <c r="K107" t="n">
-        <v>0.05076708421470706</v>
+        <v>0.0004929890695462704</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07183666260174165</v>
+        <v>0.009418133497132429</v>
       </c>
       <c r="M107" t="n">
-        <v>0.005742804754644716</v>
+        <v>0.001534307030652503</v>
       </c>
       <c r="N107" t="n">
-        <v>0.001220863394732504</v>
+        <v>9.29222637210269e-06</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02913537854883501</v>
+        <v>0.003742003921979236</v>
       </c>
       <c r="P107" t="n">
-        <v>0.06730614351238424</v>
+        <v>0.0005281599279106633</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.0008978096273884139</v>
+        <v>6.821730778302144e-06</v>
       </c>
       <c r="R107" t="n">
-        <v>0.004693304118305334</v>
+        <v>0.0001859898528490441</v>
       </c>
       <c r="S107" t="n">
-        <v>5.124722340487337e-06</v>
+        <v>4.990396675618198e-06</v>
       </c>
       <c r="T107" t="n">
-        <v>0.01313052742925186</v>
+        <v>0.0004208823919759132</v>
       </c>
       <c r="U107" t="n">
-        <v>2.985344906713015e-05</v>
+        <v>3.654799719785229e-06</v>
       </c>
       <c r="V107" t="n">
-        <v>0.0004171182096060903</v>
+        <v>1.675997590312964e-06</v>
       </c>
       <c r="W107" t="n">
-        <v>0.01590475071666005</v>
+        <v>0.0006862322774243691</v>
       </c>
       <c r="X107" t="n">
-        <v>0.5231572957002747</v>
+        <v>0.9789374547169992</v>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp000434995</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83390.fa</t>
+          <t>even_MAG-GUT8165.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1.370073445215806e-08</v>
+        <v>7.425977321049831e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>0.002009656365420517</v>
+        <v>0.002272544748592859</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02753829155501455</v>
+        <v>0.0001736135419491218</v>
       </c>
       <c r="E108" t="n">
-        <v>1.688198506941542e-13</v>
+        <v>1.843087401114687e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>2.117433146058926e-05</v>
+        <v>0.5231572957002747</v>
       </c>
       <c r="G108" t="n">
-        <v>1.699541200816973e-08</v>
+        <v>0.004833391036796956</v>
       </c>
       <c r="H108" t="n">
-        <v>0.001302304659230293</v>
+        <v>0.172415077215591</v>
       </c>
       <c r="I108" t="n">
-        <v>8.69169226432266e-05</v>
+        <v>3.624843677894808e-05</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0003617290457050142</v>
+        <v>0.03593171337313032</v>
       </c>
       <c r="K108" t="n">
-        <v>0.001114530212355799</v>
+        <v>0.05076708421470706</v>
       </c>
       <c r="L108" t="n">
-        <v>0.7407852893804209</v>
+        <v>0.07183666260174165</v>
       </c>
       <c r="M108" t="n">
-        <v>0.001148049842911495</v>
+        <v>0.005742804754644716</v>
       </c>
       <c r="N108" t="n">
-        <v>0.04425454772245094</v>
+        <v>0.001220863394732504</v>
       </c>
       <c r="O108" t="n">
-        <v>0.01231294164376663</v>
+        <v>0.02913537854883501</v>
       </c>
       <c r="P108" t="n">
-        <v>0.001631319173887288</v>
+        <v>0.06730614351238424</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.006338188636402017</v>
+        <v>0.0008978096273884139</v>
       </c>
       <c r="R108" t="n">
-        <v>2.121544329310351e-05</v>
+        <v>0.004693304118305334</v>
       </c>
       <c r="S108" t="n">
-        <v>0.0001956105910275275</v>
+        <v>5.124722340487337e-06</v>
       </c>
       <c r="T108" t="n">
-        <v>0.05636858649720868</v>
+        <v>0.01313052742925186</v>
       </c>
       <c r="U108" t="n">
-        <v>0.103898221050758</v>
+        <v>2.985344906713015e-05</v>
       </c>
       <c r="V108" t="n">
-        <v>9.22634285052729e-05</v>
+        <v>0.0004171182096060903</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0005191328012229905</v>
+        <v>0.01590475071666005</v>
       </c>
       <c r="X108" t="n">
-        <v>0.7407852893804209</v>
+        <v>0.5231572957002747</v>
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900539425</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900539425</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83863.fa</t>
+          <t>even_MAG-GUT83390.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0005283998052907946</v>
+        <v>1.370073445215806e-08</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0003208830023972215</v>
+        <v>0.002009656365420517</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0002143276846907444</v>
+        <v>0.02753829155501455</v>
       </c>
       <c r="E109" t="n">
-        <v>1.241249590456071e-08</v>
+        <v>1.688198506941542e-13</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2604815601662926</v>
+        <v>2.117433146058926e-05</v>
       </c>
       <c r="G109" t="n">
-        <v>0.05277383070958293</v>
+        <v>1.699541200816973e-08</v>
       </c>
       <c r="H109" t="n">
-        <v>0.01335666294713609</v>
+        <v>0.001302304659230293</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0009758243101177636</v>
+        <v>8.69169226432266e-05</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1387015208545986</v>
+        <v>0.0003617290457050142</v>
       </c>
       <c r="K109" t="n">
-        <v>0.006911603182260911</v>
+        <v>0.001114530212355799</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05308537859887345</v>
+        <v>0.7407852893804209</v>
       </c>
       <c r="M109" t="n">
-        <v>0.05717972196248023</v>
+        <v>0.001148049842911495</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0001259707065052383</v>
+        <v>0.04425454772245094</v>
       </c>
       <c r="O109" t="n">
-        <v>0.105180928428334</v>
+        <v>0.01231294164376663</v>
       </c>
       <c r="P109" t="n">
-        <v>0.0440629979485554</v>
+        <v>0.001631319173887288</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.0006956931962947634</v>
+        <v>0.006338188636402017</v>
       </c>
       <c r="R109" t="n">
-        <v>0.1652482497942543</v>
+        <v>2.121544329310351e-05</v>
       </c>
       <c r="S109" t="n">
-        <v>2.179412125592091e-05</v>
+        <v>0.0001956105910275275</v>
       </c>
       <c r="T109" t="n">
-        <v>0.0989888438636863</v>
+        <v>0.05636858649720868</v>
       </c>
       <c r="U109" t="n">
-        <v>0.000204123940856966</v>
+        <v>0.103898221050758</v>
       </c>
       <c r="V109" t="n">
-        <v>3.964729788399268e-05</v>
+        <v>9.22634285052729e-05</v>
       </c>
       <c r="W109" t="n">
-        <v>0.0009020250661555721</v>
+        <v>0.0005191328012229905</v>
       </c>
       <c r="X109" t="n">
-        <v>0.2604815601662926</v>
+        <v>0.7407852893804209</v>
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835</t>
+          <t>s__Eubacterium_R sp900539425</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000436835(reject)</t>
+          <t>s__Eubacterium_R sp900539425</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84701.fa</t>
+          <t>even_MAG-GUT83863.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.682792404854913e-09</v>
+        <v>0.0005283998052907946</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0006460425242058291</v>
+        <v>0.0003208830023972215</v>
       </c>
       <c r="D110" t="n">
-        <v>0.001720147764757026</v>
+        <v>0.0002143276846907444</v>
       </c>
       <c r="E110" t="n">
-        <v>3.781707660155808e-14</v>
+        <v>1.241249590456071e-08</v>
       </c>
       <c r="F110" t="n">
-        <v>9.978154546984838e-05</v>
+        <v>0.2604815601662926</v>
       </c>
       <c r="G110" t="n">
-        <v>2.921877928770791e-08</v>
+        <v>0.05277383070958293</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0001058910996140302</v>
+        <v>0.01335666294713609</v>
       </c>
       <c r="I110" t="n">
-        <v>7.217575983879275e-06</v>
+        <v>0.0009758243101177636</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0001103228906976868</v>
+        <v>0.1387015208545986</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0008121939577878741</v>
+        <v>0.006911603182260911</v>
       </c>
       <c r="L110" t="n">
-        <v>0.9473991686310521</v>
+        <v>0.05308537859887345</v>
       </c>
       <c r="M110" t="n">
-        <v>0.005822970813014848</v>
+        <v>0.05717972196248023</v>
       </c>
       <c r="N110" t="n">
-        <v>0.01235898934794389</v>
+        <v>0.0001259707065052383</v>
       </c>
       <c r="O110" t="n">
-        <v>0.000216369273710238</v>
+        <v>0.105180928428334</v>
       </c>
       <c r="P110" t="n">
-        <v>0.01953405318774799</v>
+        <v>0.0440629979485554</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.0003040647579910623</v>
+        <v>0.0006956931962947634</v>
       </c>
       <c r="R110" t="n">
-        <v>2.423192684990104e-07</v>
+        <v>0.1652482497942543</v>
       </c>
       <c r="S110" t="n">
-        <v>0.0001746576072716434</v>
+        <v>2.179412125592091e-05</v>
       </c>
       <c r="T110" t="n">
-        <v>0.0101236370204047</v>
+        <v>0.0989888438636863</v>
       </c>
       <c r="U110" t="n">
-        <v>0.0002268582035965373</v>
+        <v>0.000204123940856966</v>
       </c>
       <c r="V110" t="n">
-        <v>7.885368436416732e-05</v>
+        <v>3.964729788399268e-05</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0002585068935087743</v>
+        <v>0.0009020250661555721</v>
       </c>
       <c r="X110" t="n">
-        <v>0.9473991686310521</v>
+        <v>0.2604815601662926</v>
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900539425</t>
+          <t>s__Eubacterium_R sp000436835</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp900539425</t>
+          <t>s__Eubacterium_R sp000436835(reject)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85677.fa</t>
+          <t>even_MAG-GUT84701.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1.142452953373721e-09</v>
+        <v>1.682792404854913e-09</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0005856892355379805</v>
+        <v>0.0006460425242058291</v>
       </c>
       <c r="D111" t="n">
-        <v>0.002412791924426456</v>
+        <v>0.001720147764757026</v>
       </c>
       <c r="E111" t="n">
-        <v>9.569008491120185e-14</v>
+        <v>3.781707660155808e-14</v>
       </c>
       <c r="F111" t="n">
-        <v>4.930674655985362e-05</v>
+        <v>9.978154546984838e-05</v>
       </c>
       <c r="G111" t="n">
-        <v>1.57654956128869e-09</v>
+        <v>2.921877928770791e-08</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0003886344085772094</v>
+        <v>0.0001058910996140302</v>
       </c>
       <c r="I111" t="n">
-        <v>1.095972114569681e-05</v>
+        <v>7.217575983879275e-06</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0001554309235468844</v>
+        <v>0.0001103228906976868</v>
       </c>
       <c r="K111" t="n">
-        <v>0.002020733820560104</v>
+        <v>0.0008121939577878741</v>
       </c>
       <c r="L111" t="n">
-        <v>0.8954665641974423</v>
+        <v>0.9473991686310521</v>
       </c>
       <c r="M111" t="n">
-        <v>0.009386172151853344</v>
+        <v>0.005822970813014848</v>
       </c>
       <c r="N111" t="n">
-        <v>0.01814791800683797</v>
+        <v>0.01235898934794389</v>
       </c>
       <c r="O111" t="n">
-        <v>0.001733060593815908</v>
+        <v>0.000216369273710238</v>
       </c>
       <c r="P111" t="n">
-        <v>0.0156152926525099</v>
+        <v>0.01953405318774799</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.0002617068614475295</v>
+        <v>0.0003040647579910623</v>
       </c>
       <c r="R111" t="n">
-        <v>1.750919202867159e-06</v>
+        <v>2.423192684990104e-07</v>
       </c>
       <c r="S111" t="n">
-        <v>0.0003425527008358507</v>
+        <v>0.0001746576072716434</v>
       </c>
       <c r="T111" t="n">
-        <v>0.05182966046865441</v>
+        <v>0.0101236370204047</v>
       </c>
       <c r="U111" t="n">
-        <v>0.0006525602690994582</v>
+        <v>0.0002268582035965373</v>
       </c>
       <c r="V111" t="n">
-        <v>0.000135395548928875</v>
+        <v>7.885368436416732e-05</v>
       </c>
       <c r="W111" t="n">
-        <v>0.0008038161299194217</v>
+        <v>0.0002585068935087743</v>
       </c>
       <c r="X111" t="n">
-        <v>0.8954665641974423</v>
+        <v>0.9473991686310521</v>
       </c>
       <c r="Y111" t="inlineStr">
         <is>
@@ -10029,170 +10029,256 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86276.fa</t>
+          <t>even_MAG-GUT85677.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>9.687144496148571e-11</v>
+        <v>1.142452953373721e-09</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0003992998510940407</v>
+        <v>0.0005856892355379805</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9685666034087342</v>
+        <v>0.002412791924426456</v>
       </c>
       <c r="E112" t="n">
-        <v>5.004217018862507e-13</v>
+        <v>9.569008491120185e-14</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0002687260445114891</v>
+        <v>4.930674655985362e-05</v>
       </c>
       <c r="G112" t="n">
-        <v>4.02544449303055e-06</v>
+        <v>1.57654956128869e-09</v>
       </c>
       <c r="H112" t="n">
-        <v>0.00353830180418855</v>
+        <v>0.0003886344085772094</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0001881729891797737</v>
+        <v>1.095972114569681e-05</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0001130168313444406</v>
+        <v>0.0001554309235468844</v>
       </c>
       <c r="K112" t="n">
-        <v>3.955806127958288e-05</v>
+        <v>0.002020733820560104</v>
       </c>
       <c r="L112" t="n">
-        <v>0.008940428240481434</v>
+        <v>0.8954665641974423</v>
       </c>
       <c r="M112" t="n">
-        <v>0.001488512311518208</v>
+        <v>0.009386172151853344</v>
       </c>
       <c r="N112" t="n">
-        <v>0.01512212467628911</v>
+        <v>0.01814791800683797</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0003348466482351283</v>
+        <v>0.001733060593815908</v>
       </c>
       <c r="P112" t="n">
-        <v>9.00177144656427e-05</v>
+        <v>0.0156152926525099</v>
       </c>
       <c r="Q112" t="n">
-        <v>3.866151461311766e-06</v>
+        <v>0.0002617068614475295</v>
       </c>
       <c r="R112" t="n">
-        <v>4.55152158000908e-05</v>
+        <v>1.750919202867159e-06</v>
       </c>
       <c r="S112" t="n">
-        <v>2.061957034672954e-07</v>
+        <v>0.0003425527008358507</v>
       </c>
       <c r="T112" t="n">
-        <v>0.0008372267060576405</v>
+        <v>0.05182966046865441</v>
       </c>
       <c r="U112" t="n">
-        <v>1.344419106754286e-05</v>
+        <v>0.0006525602690994582</v>
       </c>
       <c r="V112" t="n">
-        <v>3.679549990162243e-07</v>
+        <v>0.000135395548928875</v>
       </c>
       <c r="W112" t="n">
-        <v>5.739461724583261e-06</v>
+        <v>0.0008038161299194217</v>
       </c>
       <c r="X112" t="n">
-        <v>0.9685666034087342</v>
+        <v>0.8954665641974423</v>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000433975</t>
+          <t>s__Eubacterium_R sp900539425</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>s__Eubacterium_R sp000433975</t>
+          <t>s__Eubacterium_R sp900539425</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT86276.fa</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>9.687144496148571e-11</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0003992998510940407</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.9685666034087342</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5.004217018862507e-13</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0002687260445114891</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4.02544449303055e-06</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.00353830180418855</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.0001881729891797737</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0001130168313444406</v>
+      </c>
+      <c r="K113" t="n">
+        <v>3.955806127958288e-05</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.008940428240481434</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.001488512311518208</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.01512212467628911</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.0003348466482351283</v>
+      </c>
+      <c r="P113" t="n">
+        <v>9.00177144656427e-05</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>3.866151461311766e-06</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4.55152158000908e-05</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2.061957034672954e-07</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.0008372267060576405</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1.344419106754286e-05</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3.679549990162243e-07</v>
+      </c>
+      <c r="W113" t="n">
+        <v>5.739461724583261e-06</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.9685666034087342</v>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_R sp000433975</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9158.fa</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B114" t="n">
         <v>0.0001869925382114031</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C114" t="n">
         <v>0.0001229284062870081</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D114" t="n">
         <v>0.001500113854217659</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E114" t="n">
         <v>1.347974465529477e-10</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F114" t="n">
         <v>0.04282630365539688</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G114" t="n">
         <v>0.001463409481312299</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H114" t="n">
         <v>0.008035933736297187</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I114" t="n">
         <v>0.0004317192449652437</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J114" t="n">
         <v>0.1753564223669105</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K114" t="n">
         <v>0.08620824863453544</v>
       </c>
-      <c r="L113" t="n">
+      <c r="L114" t="n">
         <v>0.05238750257998177</v>
       </c>
-      <c r="M113" t="n">
+      <c r="M114" t="n">
         <v>0.03604441420990585</v>
       </c>
-      <c r="N113" t="n">
+      <c r="N114" t="n">
         <v>0.002554552299862358</v>
       </c>
-      <c r="O113" t="n">
+      <c r="O114" t="n">
         <v>0.2313584404531269</v>
       </c>
-      <c r="P113" t="n">
+      <c r="P114" t="n">
         <v>0.009746267597422635</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="Q114" t="n">
         <v>0.001661964412383006</v>
       </c>
-      <c r="R113" t="n">
+      <c r="R114" t="n">
         <v>0.0548231770205992</v>
       </c>
-      <c r="S113" t="n">
+      <c r="S114" t="n">
         <v>7.832248907039848e-05</v>
       </c>
-      <c r="T113" t="n">
+      <c r="T114" t="n">
         <v>0.2904189784544705</v>
       </c>
-      <c r="U113" t="n">
+      <c r="U114" t="n">
         <v>0.003793330259913724</v>
       </c>
-      <c r="V113" t="n">
+      <c r="V114" t="n">
         <v>0.0002990497849946001</v>
       </c>
-      <c r="W113" t="n">
+      <c r="W114" t="n">
         <v>0.0007019283853379428</v>
       </c>
-      <c r="X113" t="n">
+      <c r="X114" t="n">
         <v>0.2904189784544705</v>
       </c>
-      <c r="Y113" t="inlineStr">
+      <c r="Y114" t="inlineStr">
         <is>
           <t>s__Eubacterium_R sp900546785</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
+      <c r="Z114" t="inlineStr">
         <is>
           <t>s__Eubacterium_R sp900546785(reject)</t>
         </is>
